--- a/src/test/java/com/aograph/drools/test/prepare.xlsx
+++ b/src/test/java/com/aograph/drools/test/prepare.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
   <si>
     <t>skey</t>
   </si>
@@ -458,7 +458,7 @@
     <t>2021-12-24 21:48:51</t>
   </si>
   <si>
-    <t>ota,rule1@430</t>
+    <t>ota</t>
   </si>
   <si>
     <t>430.00</t>
@@ -489,9 +489,6 @@
   </si>
   <si>
     <t>3U3407_XIC_INC_2022-01-02</t>
-  </si>
-  <si>
-    <t>ota</t>
   </si>
   <si>
     <t>flow1@3,flow2@0</t>
@@ -526,12 +523,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -563,8 +560,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -578,13 +582,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -592,23 +589,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,38 +645,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,34 +688,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -714,19 +711,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,7 +723,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,7 +759,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,7 +807,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,115 +885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +927,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,41 +943,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,145 +976,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1167,8 +1164,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1517,13 +1514,15 @@
   <sheetPr/>
   <dimension ref="A1:ED9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
-      <selection activeCell="DM14" sqref="DM14"/>
+    <sheetView tabSelected="1" topLeftCell="CN1" workbookViewId="0">
+      <selection activeCell="DC6" sqref="DC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="2" max="2" width="26.6057692307692" customWidth="1"/>
+    <col min="2" max="2" width="41.0192307692308" customWidth="1"/>
+    <col min="106" max="106" width="20.0288461538462" customWidth="1"/>
+    <col min="107" max="107" width="37.0096153846154" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:134">
@@ -3866,7 +3865,7 @@
         <v>360</v>
       </c>
       <c r="DC6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="DD6">
         <v>0.025</v>
@@ -3938,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="EA6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="EB6">
         <v>4</v>
@@ -3952,7 +3951,7 @@
     </row>
     <row r="7" spans="1:134">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7" s="2">
         <v>44564</v>
@@ -4270,7 +4269,7 @@
         <v>310</v>
       </c>
       <c r="DC7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="DD7">
         <v>0.0125</v>
@@ -4342,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="EA7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="EB7">
         <v>2</v>
@@ -4356,7 +4355,7 @@
     </row>
     <row r="8" spans="1:134">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" s="2">
         <v>44566</v>
@@ -4674,7 +4673,7 @@
         <v>370</v>
       </c>
       <c r="DC8" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="DD8">
         <v>0.03125</v>
@@ -4746,7 +4745,7 @@
         <v>3</v>
       </c>
       <c r="EA8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="EB8">
         <v>8</v>
@@ -4760,7 +4759,7 @@
     </row>
     <row r="9" spans="1:134">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="2">
         <v>44568</v>
@@ -5078,7 +5077,7 @@
         <v>500</v>
       </c>
       <c r="DC9" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="DD9">
         <v>0.00625</v>
@@ -5117,7 +5116,7 @@
         <v>145</v>
       </c>
       <c r="DP9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DQ9" t="s">
         <v>148</v>
@@ -5132,7 +5131,7 @@
         <v>500</v>
       </c>
       <c r="DU9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="DV9">
         <v>0</v>
@@ -5150,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="EA9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="EB9">
         <v>1</v>
